--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3468861.76710709</v>
+        <v>3464557.450058849</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.3828147651824</v>
+        <v>263.3828147651814</v>
       </c>
       <c r="C2" t="n">
-        <v>263.3828147651824</v>
+        <v>263.3828147651814</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83532033605544</v>
+        <v>72.31773688549141</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7938006179687</v>
+        <v>152.7938006179688</v>
       </c>
       <c r="T2" t="n">
-        <v>59.48241654943708</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.3828147651814</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.3828147651824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848002</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>89.49939089754169</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9429094280753</v>
+        <v>43.94290942807537</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.19058462642694</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>179.0191213861431</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>97.25990805586036</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273815</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1660284180231</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825633</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>57.68937235486547</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.3828147651824</v>
+        <v>263.3828147651814</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>110.096520216718</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>225.403139763615</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -983,19 +983,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>75.7929616352713</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>10.18456372565612</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.4784870869645</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>133.0936165696967</v>
+      </c>
+      <c r="W7" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="V7" t="n">
-        <v>252.137643323828</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>249.9122829682539</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>259.658084792058</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295398</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>28.52084334158608</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>17.42775815369515</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>15.09910835322263</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>66.85274231757823</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1666,10 +1666,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>49.33106662725072</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.154082144413</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>105.5373371683561</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>90.85912858529922</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I25" t="n">
-        <v>14.19454216862693</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>185.0663491738889</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>5.890337106877502</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>253.2767670237428</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>79.36266849663015</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>60.42721558712923</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>161.0175085755505</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3912,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>143.547678087754</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E46" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.0243432043957</v>
+        <v>367.1075922442289</v>
       </c>
       <c r="C2" t="n">
-        <v>40.98109596683771</v>
+        <v>101.0643450066719</v>
       </c>
       <c r="D2" t="n">
-        <v>40.98109596683771</v>
+        <v>101.0643450066719</v>
       </c>
       <c r="E2" t="n">
-        <v>40.98109596683771</v>
+        <v>101.0643450066719</v>
       </c>
       <c r="F2" t="n">
-        <v>34.03559521763424</v>
+        <v>94.11884425746847</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0706251812146</v>
+        <v>21.07062518121451</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0706251812146</v>
+        <v>21.07062518121451</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0706251812146</v>
+        <v>21.07062518121451</v>
       </c>
       <c r="J2" t="n">
-        <v>49.15993901467391</v>
+        <v>49.1599390146738</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935577</v>
+        <v>141.9970572935571</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959999</v>
+        <v>294.0714735959987</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007796017</v>
+        <v>494.9530007795997</v>
       </c>
       <c r="N2" t="n">
-        <v>703.698809467038</v>
+        <v>703.6988094670351</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960289012</v>
+        <v>887.4762960288978</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108075</v>
+        <v>1009.825128108071</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.53125906073</v>
+        <v>1053.531259060725</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.53125906073</v>
+        <v>1053.531259060725</v>
       </c>
       <c r="S2" t="n">
-        <v>899.1940867193473</v>
+        <v>899.1940867193429</v>
       </c>
       <c r="T2" t="n">
-        <v>839.1108376795119</v>
+        <v>899.1940867193429</v>
       </c>
       <c r="U2" t="n">
-        <v>839.1108376795119</v>
+        <v>899.1940867193429</v>
       </c>
       <c r="V2" t="n">
-        <v>839.1108376795119</v>
+        <v>633.1508394817859</v>
       </c>
       <c r="W2" t="n">
-        <v>839.1108376795119</v>
+        <v>633.1508394817859</v>
       </c>
       <c r="X2" t="n">
-        <v>839.1108376795119</v>
+        <v>633.1508394817859</v>
       </c>
       <c r="Y2" t="n">
-        <v>573.0675904419538</v>
+        <v>633.1508394817859</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>202.854708022503</v>
+        <v>451.329795164689</v>
       </c>
       <c r="C3" t="n">
-        <v>202.854708022503</v>
+        <v>451.329795164689</v>
       </c>
       <c r="D3" t="n">
-        <v>202.854708022503</v>
+        <v>302.3953855034377</v>
       </c>
       <c r="E3" t="n">
-        <v>202.854708022503</v>
+        <v>302.3953855034377</v>
       </c>
       <c r="F3" t="n">
-        <v>202.854708022503</v>
+        <v>155.8608275303227</v>
       </c>
       <c r="G3" t="n">
-        <v>65.45740238129065</v>
+        <v>155.8608275303227</v>
       </c>
       <c r="H3" t="n">
         <v>65.45740238129065</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0706251812146</v>
+        <v>21.07062518121451</v>
       </c>
       <c r="J3" t="n">
-        <v>117.0004092799709</v>
+        <v>21.07062518121451</v>
       </c>
       <c r="K3" t="n">
-        <v>191.5864341124675</v>
+        <v>95.65665001371082</v>
       </c>
       <c r="L3" t="n">
-        <v>338.199090142075</v>
+        <v>242.2693060433179</v>
       </c>
       <c r="M3" t="n">
-        <v>528.6460126286622</v>
+        <v>432.7162285299046</v>
       </c>
       <c r="N3" t="n">
-        <v>738.5421433767124</v>
+        <v>642.6123592779543</v>
       </c>
       <c r="O3" t="n">
-        <v>908.3363012748594</v>
+        <v>812.4065171761008</v>
       </c>
       <c r="P3" t="n">
-        <v>1025.278016062228</v>
+        <v>929.3482319634693</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.53125906073</v>
+        <v>1053.531259060725</v>
       </c>
       <c r="R3" t="n">
-        <v>1053.53125906073</v>
+        <v>1035.156931155244</v>
       </c>
       <c r="S3" t="n">
-        <v>1053.53125906073</v>
+        <v>1035.156931155244</v>
       </c>
       <c r="T3" t="n">
-        <v>1053.53125906073</v>
+        <v>1035.156931155244</v>
       </c>
       <c r="U3" t="n">
-        <v>1053.53125906073</v>
+        <v>1035.156931155244</v>
       </c>
       <c r="V3" t="n">
-        <v>872.7038637211913</v>
+        <v>1035.156931155244</v>
       </c>
       <c r="W3" t="n">
-        <v>618.4665069929897</v>
+        <v>1035.156931155244</v>
       </c>
       <c r="X3" t="n">
-        <v>410.6150067874569</v>
+        <v>827.3054309497109</v>
       </c>
       <c r="Y3" t="n">
-        <v>202.854708022503</v>
+        <v>619.545132184757</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463.774426203309</v>
+        <v>21.07062518121451</v>
       </c>
       <c r="C4" t="n">
-        <v>463.774426203309</v>
+        <v>21.07062518121451</v>
       </c>
       <c r="D4" t="n">
-        <v>313.6577867909732</v>
+        <v>21.07062518121451</v>
       </c>
       <c r="E4" t="n">
-        <v>313.6577867909732</v>
+        <v>21.07062518121451</v>
       </c>
       <c r="F4" t="n">
-        <v>313.6577867909732</v>
+        <v>21.07062518121451</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6577867909732</v>
+        <v>21.07062518121451</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7317983794767</v>
+        <v>21.07062518121451</v>
       </c>
       <c r="I4" t="n">
-        <v>36.33176967440281</v>
+        <v>21.07062518121451</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0706251812146</v>
+        <v>21.07062518121451</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3277805481204</v>
+        <v>125.4984182940734</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5471352504861</v>
+        <v>315.7177729964388</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4958971570836</v>
+        <v>526.6665349030361</v>
       </c>
       <c r="N4" t="n">
-        <v>738.8633854210616</v>
+        <v>738.0340231670139</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0791761376815</v>
+        <v>917.2498138836336</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.07920109738</v>
+        <v>1047.079201097376</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.53125906073</v>
+        <v>1053.531259060725</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.53125906073</v>
+        <v>1053.531259060725</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.53125906073</v>
+        <v>1053.531259060725</v>
       </c>
       <c r="T4" t="n">
-        <v>828.0600048104229</v>
+        <v>828.0600048104186</v>
       </c>
       <c r="U4" t="n">
-        <v>828.0600048104229</v>
+        <v>769.7879115226757</v>
       </c>
       <c r="V4" t="n">
-        <v>828.0600048104229</v>
+        <v>515.1034233167888</v>
       </c>
       <c r="W4" t="n">
-        <v>562.0167575728649</v>
+        <v>249.0601760792318</v>
       </c>
       <c r="X4" t="n">
-        <v>562.0167575728649</v>
+        <v>21.07062518121451</v>
       </c>
       <c r="Y4" t="n">
-        <v>562.0167575728649</v>
+        <v>21.07062518121451</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>943.6469137265112</v>
+        <v>294.4202677165018</v>
       </c>
       <c r="C5" t="n">
-        <v>943.6469137265112</v>
+        <v>294.4202677165018</v>
       </c>
       <c r="D5" t="n">
-        <v>677.2692571593334</v>
+        <v>294.4202677165018</v>
       </c>
       <c r="E5" t="n">
-        <v>410.8916005921556</v>
+        <v>294.4202677165018</v>
       </c>
       <c r="F5" t="n">
-        <v>403.9460998429521</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G5" t="n">
-        <v>137.5684432757742</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>137.5684432757742</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
         <v>21.09711040012049</v>
@@ -4600,19 +4600,19 @@
         <v>1054.855520006024</v>
       </c>
       <c r="U5" t="n">
-        <v>943.6469137265112</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V5" t="n">
-        <v>943.6469137265112</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="W5" t="n">
-        <v>943.6469137265112</v>
+        <v>827.1755808508576</v>
       </c>
       <c r="X5" t="n">
-        <v>943.6469137265112</v>
+        <v>560.7979242836798</v>
       </c>
       <c r="Y5" t="n">
-        <v>943.6469137265112</v>
+        <v>294.4202677165018</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>611.9431130093278</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>437.4900837282008</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>288.5556740669496</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>288.5556740669496</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>142.0211160938345</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749989</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4655,13 +4655,13 @@
         <v>242.5255548298711</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263948</v>
+        <v>503.6022960313621</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110289997</v>
+        <v>713.6562631339671</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557294</v>
+        <v>909.4672107560895</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006024</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742817</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="W6" t="n">
-        <v>819.7034117742817</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="X6" t="n">
-        <v>819.7034117742817</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>611.9431130093278</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184.234647516738</v>
+        <v>205.2577368622518</v>
       </c>
       <c r="C7" t="n">
-        <v>184.234647516738</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="D7" t="n">
-        <v>184.234647516738</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="E7" t="n">
         <v>36.32155393434486</v>
@@ -4728,19 +4728,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227042</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075538</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816802</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0893714333329</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0893714333329</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T7" t="n">
-        <v>926.0893714333329</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U7" t="n">
-        <v>659.7117148661549</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V7" t="n">
-        <v>405.0272266602681</v>
+        <v>920.4175234709771</v>
       </c>
       <c r="W7" t="n">
-        <v>405.0272266602681</v>
+        <v>654.0398669037992</v>
       </c>
       <c r="X7" t="n">
-        <v>405.0272266602681</v>
+        <v>426.0503160057818</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.234647516738</v>
+        <v>205.2577368622518</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1416.181083656474</v>
+        <v>1059.365742829027</v>
       </c>
       <c r="C8" t="n">
-        <v>1416.181083656474</v>
+        <v>690.4032258886157</v>
       </c>
       <c r="D8" t="n">
-        <v>1163.744434193592</v>
+        <v>332.1375272818652</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9561815953473</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057397</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704327</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
         <v>51.2467865680031</v>
@@ -4804,28 +4804,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.51718528161</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872947</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923566</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230823</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740848</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721765007</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
         <v>2562.339328400155</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926588</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1416.181083656474</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>1416.181083656474</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1416.181083656474</v>
+        <v>1445.965582893149</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370166</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180674</v>
+        <v>507.2413987429752</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495403</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508762</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105708</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O9" t="n">
-        <v>2102.578639884747</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292608</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>504.0139700109355</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>504.0139700109355</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>353.8973305985998</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>325.088397930331</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>325.088397930331</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386096</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386096</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590084</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749945</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749945</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.115628253783</v>
+        <v>1618.842323959654</v>
       </c>
       <c r="V10" t="n">
-        <v>793.4311400478961</v>
+        <v>1364.157835753767</v>
       </c>
       <c r="W10" t="n">
-        <v>504.0139700109355</v>
+        <v>1074.740665716806</v>
       </c>
       <c r="X10" t="n">
-        <v>504.0139700109355</v>
+        <v>846.7511148187889</v>
       </c>
       <c r="Y10" t="n">
-        <v>504.0139700109355</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5041,25 +5041,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5074,7 +5074,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5120,22 +5120,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845744</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.717886400351</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2204.627616639638</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770323</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>803.2707707770323</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>653.1541313646966</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>505.2410377823035</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>358.3510902843931</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>191.154990999273</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.435061037252</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2159.833596060193</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.073881198505</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.70136564882</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072721</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="14">
@@ -5314,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2330.088019603117</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2110.486554626058</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1821.411327970255</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1566.726839764368</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362679</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5515,22 +5515,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5545,19 +5545,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>2567.280686761779</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>3062.606292977538</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>3659.984780604089</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>3659.984780604089</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>4211.894510843376</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2090.45917461044</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1801.383947954638</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1546.699459748751</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1257.28228971179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1029.292738813773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5752,19 +5752,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5831,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>315.9123021921482</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2978.516248701935</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>2809.580065774028</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>2659.463426361692</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2511.550332779299</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2511.550332779299</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>3160.164713532175</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5992,19 +5992,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3274.788447112224</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>3105.852264184317</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>2955.735624771981</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2807.822531189588</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2660.932583691678</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2493.736484406558</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>2352.024653248756</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3677.229491085994</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3677.229491085994</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3456.436911942464</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6253,10 +6253,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2495.978408795858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>408.6744289523863</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>241.4783296672662</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>99.7664985094643</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1788.671666052305</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V31" t="n">
-        <v>1533.987177846418</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W31" t="n">
-        <v>1244.570007809457</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X31" t="n">
-        <v>1016.58045691144</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y31" t="n">
-        <v>1016.58045691144</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="32">
@@ -6700,19 +6700,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6791,13 +6791,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,16 +6934,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6955,7 +6955,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>526.5658826424041</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>526.5658826424041</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>378.6527890600109</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7177,16 +7177,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>417.9651836029414</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>913.2907898187001</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>870.3164745246296</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C40" t="n">
-        <v>701.3802915967227</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D40" t="n">
-        <v>551.263652184387</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E40" t="n">
-        <v>403.3505586019938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F40" t="n">
-        <v>256.4606111040835</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1811.200273012738</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1556.515784806851</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.747069396417</v>
+        <v>1267.09861476989</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.757518498399</v>
+        <v>1039.109063871873</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.964939354869</v>
+        <v>818.3164847283425</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>4151.857387650098</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>3897.172899444211</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>3752.175244810116</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>3524.185693912098</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912098</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7645,31 +7645,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2715.159942084666</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>2913.946970978148</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>3511.3254586047</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>4138.923422159307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7788,13 +7788,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877256</v>
+        <v>60.59164343877279</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.00790724000471</v>
+        <v>2.109135423079337</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>96.8987718169243</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>105.9060266941003</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8154,7 +8154,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>134.1688236634918</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8303,16 +8303,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>71.18793141915893</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>26.13373767211385</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127281</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039145</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>98.24448441976142</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154957</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>125.1956044930012</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>114.1735436840664</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>131.6952193743939</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>111.8681131589321</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>74.66500970696963</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I25" t="n">
-        <v>67.07129414993861</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>40.64330621514821</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>75.37549921168804</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>32.9077073655013</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>146.346986892407</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>84.99383243580201</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>4.506629716718379</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>142.975320248837</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E46" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>694344.5735090579</v>
+        <v>694344.5735090578</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>700238.0577253023</v>
+        <v>700238.0577253024</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>677484.8800794892</v>
+        <v>677484.8800794891</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794891</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.8800794892</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.8800794892</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244616</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244617</v>
+        <v>759463.6371244618</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="I2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="K2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.604713255</v>
       </c>
       <c r="M2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="N2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="O2" t="n">
-        <v>746610.6047132551</v>
-      </c>
       <c r="P2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132555</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909318</v>
+        <v>679702.4124909305</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680916443</v>
+        <v>366.4703680928214</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059457</v>
+        <v>391128.3638059438</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245441</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.5331864215</v>
+        <v>68912.53318642109</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774214222</v>
+        <v>85.20559774245216</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756971</v>
+        <v>95382.64613756973</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674025</v>
+        <v>253116.5477674028</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676992</v>
+        <v>142746.9572676995</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26441,7 +26441,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557704</v>
+        <v>63021.46164557696</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-236376.7847794498</v>
+        <v>-236376.784779448</v>
       </c>
       <c r="C6" t="n">
-        <v>443032.5986447687</v>
+        <v>443032.5986447675</v>
       </c>
       <c r="D6" t="n">
-        <v>132650.5436109724</v>
+        <v>132650.5436109745</v>
       </c>
       <c r="E6" t="n">
-        <v>125615.7130829863</v>
+        <v>125268.3338286274</v>
       </c>
       <c r="F6" t="n">
-        <v>633101.1547075304</v>
+        <v>632753.7754531731</v>
       </c>
       <c r="G6" t="n">
-        <v>633101.15470753</v>
+        <v>632753.7754531732</v>
       </c>
       <c r="H6" t="n">
-        <v>633101.15470753</v>
+        <v>632753.7754531733</v>
       </c>
       <c r="I6" t="n">
-        <v>633101.1547075304</v>
+        <v>632753.7754531731</v>
       </c>
       <c r="J6" t="n">
-        <v>564188.6215211084</v>
+        <v>563841.2422667521</v>
       </c>
       <c r="K6" t="n">
-        <v>633015.9491097882</v>
+        <v>632668.5698554307</v>
       </c>
       <c r="L6" t="n">
-        <v>537718.5085699601</v>
+        <v>537371.1293156034</v>
       </c>
       <c r="M6" t="n">
-        <v>500493.8609786034</v>
+        <v>500146.4817242465</v>
       </c>
       <c r="N6" t="n">
-        <v>633101.1547075302</v>
+        <v>632753.7754531731</v>
       </c>
       <c r="O6" t="n">
-        <v>633101.1547075299</v>
+        <v>632753.7754531732</v>
       </c>
       <c r="P6" t="n">
-        <v>633101.1547075299</v>
+        <v>632753.7754531734</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.770023296053</v>
+        <v>613.770023296052</v>
       </c>
       <c r="C3" t="n">
         <v>614.055013769478</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651824</v>
+        <v>263.3828147651814</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.770023296053</v>
+        <v>613.770023296052</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734250686</v>
+        <v>0.2849904734259781</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480636</v>
+        <v>320.0098783480613</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241324</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651824</v>
+        <v>263.3828147651814</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363236386</v>
+        <v>0.3310652363247186</v>
       </c>
       <c r="D4" t="n">
         <v>376.8709520985327</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651828</v>
+        <v>263.3828147651811</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363236386</v>
+        <v>0.331065236324946</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
         <v>532.1234559996096</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651824</v>
+        <v>263.3828147651814</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363236386</v>
+        <v>0.3310652363247186</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985327</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.3510268982981</v>
+        <v>119.3510268982992</v>
       </c>
       <c r="C2" t="n">
-        <v>101.8900770058251</v>
+        <v>101.8900770058262</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>340.517583450564</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2053659305181</v>
+        <v>314.2053659305182</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739392</v>
+        <v>115.3507887739394</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>152.8123143132733</v>
+        <v>212.2947308627104</v>
       </c>
       <c r="U2" t="n">
         <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.36944370495354</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.8551238908711</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0233325848003</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48524054500676</v>
+        <v>9.985849647465088</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642683</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1613215881889</v>
+        <v>147.161321588189</v>
       </c>
       <c r="T3" t="n">
         <v>194.8434583985096</v>
@@ -27517,10 +27517,10 @@
         <v>225.8545278323952</v>
       </c>
       <c r="V3" t="n">
-        <v>53.78146576328217</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.57207212607693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27554,13 +27554,13 @@
         <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3867285273816</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1660284180232</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.10853304825645</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>127.5277104718863</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7281204196192</v>
+        <v>204.7281204196193</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586585345273</v>
+        <v>228.5692861796619</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>23.14018357140856</v>
+        <v>23.14018357140964</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917687</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707557</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
-        <v>141.0516476615645</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>123.837828953798</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545475</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>60.22975795115215</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>195.5884214778214</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02611579669941477</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
@@ -27830,16 +27830,16 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117141</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>119.0440267541313</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508492</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>104.770758652429</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>122.2722852802038</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>117.9131193049831</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>268.7993959675055</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079608</v>
+        <v>2.467417179079604</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524904</v>
+        <v>25.26943618524901</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646668</v>
+        <v>95.12510079646654</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029081</v>
+        <v>209.4189488029077</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933479</v>
+        <v>313.8647179933475</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3769364876056</v>
+        <v>389.376936487605</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460625</v>
+        <v>433.2568667460619</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061225</v>
+        <v>440.2674158061218</v>
       </c>
       <c r="O2" t="n">
-        <v>415.7320362316496</v>
+        <v>415.732036231649</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231218</v>
+        <v>354.8176746231212</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973332</v>
+        <v>266.4532968973328</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753596</v>
+        <v>154.9938943753593</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827662</v>
+        <v>56.22626896827654</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142099</v>
+        <v>10.80111870142097</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263686</v>
+        <v>0.1973933743263683</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410378</v>
+        <v>1.320184578410376</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148971</v>
+        <v>12.75020369148969</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333978</v>
+        <v>45.45372342333971</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7284912435875</v>
+        <v>124.7284912435874</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970829</v>
+        <v>213.1808579970825</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289727</v>
+        <v>286.6479717289723</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963488</v>
+        <v>334.5046626963483</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3580057682325</v>
+        <v>343.358005768232</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466131</v>
+        <v>314.1054948466126</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439958</v>
+        <v>252.0973516439954</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.520403377437</v>
+        <v>168.5204033774368</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621631</v>
+        <v>81.96724952621619</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564889</v>
+        <v>24.52184951564886</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296312004</v>
+        <v>5.321270296311996</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857963017</v>
+        <v>0.08685424857963005</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665013</v>
+        <v>1.106798402665012</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058035</v>
+        <v>9.840443980058021</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923514</v>
+        <v>33.28444650923509</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841644</v>
+        <v>78.25064706841633</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5898507823534</v>
+        <v>128.5898507823532</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653058</v>
+        <v>164.5507370653055</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195711</v>
+        <v>173.4956805195709</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187289</v>
+        <v>169.3703410187287</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148694</v>
+        <v>156.4409233148692</v>
       </c>
       <c r="P4" t="n">
-        <v>133.862235900503</v>
+        <v>133.8622359005028</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770399</v>
+        <v>92.67927351770386</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528323</v>
+        <v>49.76568090528315</v>
       </c>
       <c r="S4" t="n">
-        <v>19.288477617353</v>
+        <v>19.28847761735297</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477784</v>
+        <v>4.729047720477777</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354625</v>
+        <v>0.06037082196354616</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32317,7 +32317,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>324.9782573297445</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>382.1329742631536</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32551,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>362.180468412921</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>460.9249101897664</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>197.6412480909884</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>228.3420541567482</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33666,7 +33666,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,34 +33970,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>465.2641870096817</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34210,28 +34210,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>218.9428233593773</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
-        <v>339.3493584601589</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622178</v>
+        <v>28.37304427622146</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836739</v>
+        <v>93.77486694836693</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176183</v>
+        <v>153.6105215176178</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187898</v>
+        <v>202.9106335187892</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095316</v>
+        <v>210.8543522095309</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099629</v>
+        <v>185.6338248099623</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678522</v>
+        <v>123.5846788678517</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.1476070228837</v>
+        <v>44.14760702288331</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>96.89877181692556</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272386</v>
+        <v>75.33941902272355</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490985</v>
+        <v>148.0935919490981</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3706287743305</v>
+        <v>192.37062877433</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848992</v>
+        <v>212.0162936848987</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021686</v>
+        <v>171.5092504021682</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296656</v>
+        <v>118.1229442296652</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.53862929141553</v>
+        <v>125.4374011083396</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3203589564705</v>
+        <v>105.482619305918</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256219</v>
+        <v>192.1407623256216</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814117</v>
+        <v>213.0795574814115</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979575</v>
+        <v>213.5025133979573</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289091</v>
+        <v>181.0260512289088</v>
       </c>
       <c r="P4" t="n">
-        <v>130.3030555148472</v>
+        <v>131.1407951653963</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009605</v>
+        <v>6.517230266009477</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35023,16 +35023,16 @@
         <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N6" t="n">
         <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>197.7888359819418</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250137</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649633</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313267</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434856</v>
+        <v>397.6203974676403</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378513</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820418</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928752</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>347.9240135432947</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308552</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>248.1585668488234</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>224.339029438562</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>322.3705304098922</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>97.00034207341486</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>327.4227480353227</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37858,28 +37858,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>81.10138438501833</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
-        <v>200.7949786802847</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_19_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3464557.450058849</v>
+        <v>3466317.980361634</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.3828147651814</v>
+        <v>263.3828147651818</v>
       </c>
       <c r="C2" t="n">
-        <v>263.3828147651814</v>
+        <v>263.3828147651818</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>66.35846229114783</v>
       </c>
       <c r="G2" t="n">
-        <v>72.31773688549141</v>
+        <v>12.83532033605544</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>263.3828147651814</v>
+        <v>263.3828147651818</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>89.49939089754169</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94290942807537</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.19058462642694</v>
+        <v>18.19058462642688</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>8.861706085379698</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>62.32126071057576</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2165417078037</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>57.68937235486547</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.3828147651814</v>
+        <v>263.3828147651818</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>263.7138800015061</v>
+        <v>225.4031397636151</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>225.403139763615</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>263.7138800015061</v>
@@ -980,13 +980,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>21.02847872996037</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565612</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>151.7249646501124</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>133.0936165696967</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>263.7138800015061</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>259.658084792058</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>27.03856907408586</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>66.85274231757823</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710082</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>177.696569780335</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710084</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695436</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>5.890337106877502</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>104.7777418077832</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>121.8000472740347</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>164.5981994227929</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144412</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>51.3656974031032</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>83.06560892428168</v>
+        <v>42.53134576113725</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>367.1075922442289</v>
+        <v>367.1075922442298</v>
       </c>
       <c r="C2" t="n">
-        <v>101.0643450066719</v>
+        <v>101.0643450066724</v>
       </c>
       <c r="D2" t="n">
-        <v>101.0643450066719</v>
+        <v>101.0643450066724</v>
       </c>
       <c r="E2" t="n">
-        <v>101.0643450066719</v>
+        <v>101.0643450066724</v>
       </c>
       <c r="F2" t="n">
-        <v>94.11884425746847</v>
+        <v>34.03559521763419</v>
       </c>
       <c r="G2" t="n">
-        <v>21.07062518121451</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="H2" t="n">
-        <v>21.07062518121451</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="I2" t="n">
-        <v>21.07062518121451</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="J2" t="n">
         <v>49.1599390146738</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9970572935571</v>
+        <v>141.9970572935573</v>
       </c>
       <c r="L2" t="n">
-        <v>294.0714735959987</v>
+        <v>294.0714735959992</v>
       </c>
       <c r="M2" t="n">
-        <v>494.9530007795997</v>
+        <v>494.9530007796006</v>
       </c>
       <c r="N2" t="n">
-        <v>703.6988094670351</v>
+        <v>703.698809467036</v>
       </c>
       <c r="O2" t="n">
-        <v>887.4762960288978</v>
+        <v>887.4762960288991</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.825128108071</v>
+        <v>1009.825128108073</v>
       </c>
       <c r="Q2" t="n">
-        <v>1053.531259060725</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="R2" t="n">
-        <v>1053.531259060725</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="S2" t="n">
-        <v>899.1940867193429</v>
+        <v>899.1940867193447</v>
       </c>
       <c r="T2" t="n">
-        <v>899.1940867193429</v>
+        <v>899.1940867193447</v>
       </c>
       <c r="U2" t="n">
-        <v>899.1940867193429</v>
+        <v>899.1940867193447</v>
       </c>
       <c r="V2" t="n">
-        <v>633.1508394817859</v>
+        <v>633.1508394817872</v>
       </c>
       <c r="W2" t="n">
-        <v>633.1508394817859</v>
+        <v>633.1508394817872</v>
       </c>
       <c r="X2" t="n">
-        <v>633.1508394817859</v>
+        <v>633.1508394817872</v>
       </c>
       <c r="Y2" t="n">
-        <v>633.1508394817859</v>
+        <v>633.1508394817872</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>451.329795164689</v>
+        <v>650.2300771021634</v>
       </c>
       <c r="C3" t="n">
-        <v>451.329795164689</v>
+        <v>475.7770478210364</v>
       </c>
       <c r="D3" t="n">
-        <v>302.3953855034377</v>
+        <v>326.8426381597851</v>
       </c>
       <c r="E3" t="n">
-        <v>302.3953855034377</v>
+        <v>167.6051831543296</v>
       </c>
       <c r="F3" t="n">
-        <v>155.8608275303227</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="G3" t="n">
-        <v>155.8608275303227</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="H3" t="n">
-        <v>65.45740238129065</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="I3" t="n">
-        <v>21.07062518121451</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="J3" t="n">
-        <v>21.07062518121451</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="K3" t="n">
-        <v>95.65665001371082</v>
+        <v>95.65665001371102</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2693060433179</v>
+        <v>242.2693060433184</v>
       </c>
       <c r="M3" t="n">
-        <v>432.7162285299046</v>
+        <v>432.7162285299053</v>
       </c>
       <c r="N3" t="n">
-        <v>642.6123592779543</v>
+        <v>642.6123592779553</v>
       </c>
       <c r="O3" t="n">
-        <v>812.4065171761008</v>
+        <v>812.4065171761019</v>
       </c>
       <c r="P3" t="n">
-        <v>929.3482319634693</v>
+        <v>929.3482319634707</v>
       </c>
       <c r="Q3" t="n">
-        <v>1053.531259060725</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.156931155244</v>
+        <v>1035.156931155246</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.156931155244</v>
+        <v>1035.156931155246</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.156931155244</v>
+        <v>1035.156931155246</v>
       </c>
       <c r="U3" t="n">
-        <v>1035.156931155244</v>
+        <v>1035.156931155246</v>
       </c>
       <c r="V3" t="n">
-        <v>1035.156931155244</v>
+        <v>1035.156931155246</v>
       </c>
       <c r="W3" t="n">
-        <v>1035.156931155244</v>
+        <v>1035.156931155246</v>
       </c>
       <c r="X3" t="n">
-        <v>827.3054309497109</v>
+        <v>1026.205712887185</v>
       </c>
       <c r="Y3" t="n">
-        <v>619.545132184757</v>
+        <v>818.4454141222313</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.07062518121451</v>
+        <v>84.02139357573552</v>
       </c>
       <c r="C4" t="n">
-        <v>21.07062518121451</v>
+        <v>84.02139357573552</v>
       </c>
       <c r="D4" t="n">
-        <v>21.07062518121451</v>
+        <v>84.02139357573552</v>
       </c>
       <c r="E4" t="n">
-        <v>21.07062518121451</v>
+        <v>84.02139357573552</v>
       </c>
       <c r="F4" t="n">
-        <v>21.07062518121451</v>
+        <v>84.02139357573552</v>
       </c>
       <c r="G4" t="n">
-        <v>21.07062518121451</v>
+        <v>84.02139357573552</v>
       </c>
       <c r="H4" t="n">
-        <v>21.07062518121451</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="I4" t="n">
-        <v>21.07062518121451</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="J4" t="n">
-        <v>21.07062518121451</v>
+        <v>21.07062518121455</v>
       </c>
       <c r="K4" t="n">
-        <v>125.4984182940734</v>
+        <v>126.3277805481202</v>
       </c>
       <c r="L4" t="n">
-        <v>315.7177729964388</v>
+        <v>316.5471352504858</v>
       </c>
       <c r="M4" t="n">
-        <v>526.6665349030361</v>
+        <v>527.4958971570833</v>
       </c>
       <c r="N4" t="n">
-        <v>738.0340231670139</v>
+        <v>738.8633854210611</v>
       </c>
       <c r="O4" t="n">
-        <v>917.2498138836336</v>
+        <v>918.079176137681</v>
       </c>
       <c r="P4" t="n">
-        <v>1047.079201097376</v>
+        <v>1047.908563351423</v>
       </c>
       <c r="Q4" t="n">
-        <v>1053.531259060725</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="R4" t="n">
-        <v>1053.531259060725</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="S4" t="n">
-        <v>1053.531259060725</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="T4" t="n">
-        <v>828.0600048104186</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="U4" t="n">
-        <v>769.7879115226757</v>
+        <v>1053.531259060727</v>
       </c>
       <c r="V4" t="n">
-        <v>515.1034233167888</v>
+        <v>798.8467708548404</v>
       </c>
       <c r="W4" t="n">
-        <v>249.0601760792318</v>
+        <v>532.803523617283</v>
       </c>
       <c r="X4" t="n">
-        <v>21.07062518121451</v>
+        <v>304.8139727192656</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.07062518121451</v>
+        <v>84.02139357573552</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>294.4202677165018</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C5" t="n">
-        <v>294.4202677165018</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>294.4202677165018</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E5" t="n">
-        <v>294.4202677165018</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="F5" t="n">
-        <v>287.4747669672984</v>
+        <v>248.7770495552872</v>
       </c>
       <c r="G5" t="n">
         <v>21.09711040012049</v>
@@ -4567,19 +4567,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L5" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4588,31 +4588,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>827.1755808508576</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>560.7979242836798</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y5" t="n">
-        <v>294.4202677165018</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4649,49 +4649,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957456</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298711</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M6" t="n">
-        <v>503.6022960313621</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>713.6562631339671</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560895</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212814</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212814</v>
+        <v>1033.614632400004</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212814</v>
+        <v>779.3772756718023</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>571.5257754662695</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>363.7654767013155</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>205.2577368622518</v>
+        <v>339.6957333972991</v>
       </c>
       <c r="C7" t="n">
-        <v>36.32155393434486</v>
+        <v>186.4381933466805</v>
       </c>
       <c r="D7" t="n">
-        <v>36.32155393434486</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E7" t="n">
-        <v>36.32155393434486</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434486</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434486</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434486</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434486</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287944</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227042</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075538</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>920.4175234709771</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>654.0398669037992</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X7" t="n">
-        <v>426.0503160057818</v>
+        <v>560.4883125408293</v>
       </c>
       <c r="Y7" t="n">
-        <v>205.2577368622518</v>
+        <v>339.6957333972991</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1059.365742829027</v>
+        <v>1614.225191671744</v>
       </c>
       <c r="C8" t="n">
-        <v>690.4032258886157</v>
+        <v>1245.262674731332</v>
       </c>
       <c r="D8" t="n">
-        <v>332.1375272818652</v>
+        <v>886.996976124582</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>501.2087235263378</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>90.22281873673023</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>78.55847250142317</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>2000.825031735866</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.965582893149</v>
+        <v>2000.825031735866</v>
       </c>
     </row>
     <row r="9">
@@ -4865,43 +4865,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429752</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L9" t="n">
-        <v>801.944955774447</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330612</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4950,19 +4950,19 @@
         <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5035,28 +5035,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,22 +5068,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,13 +5114,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5129,10 +5129,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.435061037252</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2159.833596060193</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1870.758369404391</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.073881198505</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1326.656711161544</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1098.667160263527</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263527</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5275,46 +5275,46 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5518,16 +5518,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5655,19 +5655,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5989,19 +5989,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6457,34 +6457,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1022.530292372932</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>853.5941094450255</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>703.4774700326898</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>555.5643764502967</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>408.6744289523863</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>241.4783296672662</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>99.7664985094643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1424.971336346702</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.178757203172</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6700,19 +6700,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,16 +6934,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6955,7 +6955,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7074,19 +7074,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>390.823249958218</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7174,19 +7174,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>636.6680198981028</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>467.7318369701959</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>317.6151975578602</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1811.200273012738</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1556.515784806851</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1267.09861476989</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>1039.109063871873</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>818.3164847283425</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168594</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362668</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7438,25 +7438,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7499,10 +7499,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.59164343877279</v>
+        <v>60.59164343877268</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.109135423079337</v>
+        <v>2.109135423079252</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.8987718169243</v>
+        <v>96.89877181692461</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>105.9060266941003</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>64.5052187272003</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,22 +8294,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418308</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>71.18793141915893</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>26.13373767211385</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241554</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154988</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>114.1735436840664</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>39.70888054695322</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>75.37549921168804</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>40.64330621514807</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>45.44677382459312</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>114.1584408891656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54986409393068</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>694344.5735090578</v>
+        <v>694344.5735090579</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>700238.0577253024</v>
+        <v>700238.0577253025</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.8800794892</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794892</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>677484.8800794892</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794892</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>677484.8800794891</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>677484.8800794892</v>
+        <v>677484.880079489</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>677484.880079489</v>
+        <v>677484.8800794892</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244621</v>
+      </c>
+      <c r="C2" t="n">
+        <v>759463.6371244619</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244623</v>
-      </c>
-      <c r="C2" t="n">
-        <v>759463.6371244618</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132553</v>
@@ -26340,22 +26340,22 @@
         <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="L2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>746610.6047132553</v>
-      </c>
-      <c r="N2" t="n">
-        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679702.4124909305</v>
+        <v>679702.4124909311</v>
       </c>
       <c r="C3" t="n">
-        <v>366.4703680928214</v>
+        <v>366.4703680925894</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059438</v>
+        <v>391128.3638059435</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245454</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.640055208412754e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68912.53318642109</v>
+        <v>68912.53318642123</v>
       </c>
       <c r="K3" t="n">
-        <v>85.20559774245216</v>
+        <v>85.20559774228622</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756973</v>
+        <v>95382.64613756977</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>253116.5477674028</v>
+        <v>253116.5477674027</v>
       </c>
       <c r="C4" t="n">
         <v>253016.7649073352</v>
       </c>
       <c r="D4" t="n">
-        <v>142746.9572676995</v>
+        <v>142746.9572676994</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.9201818181</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
@@ -26441,10 +26441,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
+        <v>12386.92018181809</v>
+      </c>
+      <c r="K4" t="n">
         <v>12386.92018181817</v>
-      </c>
-      <c r="K4" t="n">
-        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26456,7 +26456,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181821</v>
       </c>
       <c r="P4" t="n">
         <v>12386.92018181813</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63021.46164557696</v>
+        <v>63021.461645577</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-236376.784779448</v>
+        <v>-236376.7847794487</v>
       </c>
       <c r="C6" t="n">
-        <v>443032.5986447675</v>
+        <v>443032.5986447679</v>
       </c>
       <c r="D6" t="n">
-        <v>132650.5436109745</v>
+        <v>132650.5436109747</v>
       </c>
       <c r="E6" t="n">
-        <v>125268.3338286274</v>
+        <v>125580.9751575489</v>
       </c>
       <c r="F6" t="n">
-        <v>632753.7754531731</v>
+        <v>633066.4167820942</v>
       </c>
       <c r="G6" t="n">
-        <v>632753.7754531732</v>
+        <v>633066.4167820947</v>
       </c>
       <c r="H6" t="n">
-        <v>632753.7754531733</v>
+        <v>633066.4167820946</v>
       </c>
       <c r="I6" t="n">
-        <v>632753.7754531731</v>
+        <v>633066.4167820944</v>
       </c>
       <c r="J6" t="n">
-        <v>563841.2422667521</v>
+        <v>564153.8835956733</v>
       </c>
       <c r="K6" t="n">
-        <v>632668.5698554307</v>
+        <v>632981.2111843519</v>
       </c>
       <c r="L6" t="n">
-        <v>537371.1293156034</v>
+        <v>537683.7706445247</v>
       </c>
       <c r="M6" t="n">
-        <v>500146.4817242465</v>
+        <v>500459.1230531677</v>
       </c>
       <c r="N6" t="n">
-        <v>632753.7754531731</v>
+        <v>633066.4167820944</v>
       </c>
       <c r="O6" t="n">
-        <v>632753.7754531732</v>
+        <v>633066.4167820944</v>
       </c>
       <c r="P6" t="n">
-        <v>632753.7754531734</v>
+        <v>633066.4167820945</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.368868402633089e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26724,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.770023296052</v>
+        <v>613.7700232960525</v>
       </c>
       <c r="C3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651814</v>
+        <v>263.3828147651818</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.368868402633089e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-3.368868402633089e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.770023296052</v>
+        <v>613.7700232960525</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2849904734259781</v>
+        <v>0.2849904734258644</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480613</v>
+        <v>320.009878348061</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241342</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.3828147651814</v>
+        <v>263.3828147651818</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3310652363247186</v>
+        <v>0.3310652363243207</v>
       </c>
       <c r="D4" t="n">
         <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651811</v>
+        <v>263.3828147651818</v>
       </c>
       <c r="K4" t="n">
-        <v>0.331065236324946</v>
+        <v>0.3310652363240933</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985329</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27168,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.368868402633089e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.3828147651814</v>
+        <v>263.3828147651818</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3310652363247186</v>
+        <v>0.3310652363243207</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.3510268982992</v>
+        <v>119.3510268982988</v>
       </c>
       <c r="C2" t="n">
-        <v>101.8900770058262</v>
+        <v>101.8900770058257</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>340.5175834505636</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>340.517583450564</v>
-      </c>
       <c r="H2" t="n">
-        <v>314.2053659305182</v>
+        <v>314.2053659305181</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3507887739394</v>
+        <v>115.3507887739393</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>251.1482595335101</v>
       </c>
       <c r="V2" t="n">
-        <v>64.36944370495354</v>
+        <v>64.36944370495308</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27460,25 +27460,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0233325848003</v>
+        <v>136.0233325848002</v>
       </c>
       <c r="H3" t="n">
-        <v>9.985849647465088</v>
+        <v>99.48524054500676</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.94290942807533</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.161321588189</v>
+        <v>147.1613215881889</v>
       </c>
       <c r="T3" t="n">
         <v>194.8434583985096</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>196.9112791180978</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>166.8841809557937</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3867285273816</v>
+        <v>90.06546781680578</v>
       </c>
       <c r="I4" t="n">
         <v>122.1660284180232</v>
       </c>
       <c r="J4" t="n">
-        <v>15.10853304825645</v>
+        <v>15.10853304825639</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,22 +27590,22 @@
         <v>204.7281204196193</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2165417078037</v>
       </c>
       <c r="U4" t="n">
-        <v>228.5692861796619</v>
+        <v>286.2586585345273</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>23.14018357140964</v>
+        <v>23.14018357140918</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>149.1202946442039</v>
+        <v>187.4310348820949</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27669,7 +27669,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032233</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>123.837828953798</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545475</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27700,22 +27700,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>211.7721084194649</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778214</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>15.52185644851545</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,7 +27794,7 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>119.0440267541313</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508492</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>122.2722852802038</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>273.9799834883195</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247047</v>
@@ -27906,7 +27906,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-6.107776353646526e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -29277,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>-5.30466095334812e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -30462,7 +30462,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.736439038534721e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467417179079604</v>
+        <v>2.467417179079606</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26943618524901</v>
+        <v>25.26943618524902</v>
       </c>
       <c r="I2" t="n">
-        <v>95.12510079646654</v>
+        <v>95.12510079646661</v>
       </c>
       <c r="J2" t="n">
-        <v>209.4189488029077</v>
+        <v>209.4189488029079</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8647179933475</v>
+        <v>313.8647179933477</v>
       </c>
       <c r="L2" t="n">
-        <v>389.376936487605</v>
+        <v>389.3769364876053</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2568667460619</v>
+        <v>433.2568667460622</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2674158061218</v>
+        <v>440.2674158061222</v>
       </c>
       <c r="O2" t="n">
-        <v>415.732036231649</v>
+        <v>415.7320362316493</v>
       </c>
       <c r="P2" t="n">
-        <v>354.8176746231212</v>
+        <v>354.8176746231215</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4532968973328</v>
+        <v>266.453296897333</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9938943753593</v>
+        <v>154.9938943753594</v>
       </c>
       <c r="S2" t="n">
-        <v>56.22626896827654</v>
+        <v>56.22626896827659</v>
       </c>
       <c r="T2" t="n">
-        <v>10.80111870142097</v>
+        <v>10.80111870142098</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973933743263683</v>
+        <v>0.1973933743263684</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320184578410376</v>
+        <v>1.320184578410377</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75020369148969</v>
+        <v>12.7502036914897</v>
       </c>
       <c r="I3" t="n">
-        <v>45.45372342333971</v>
+        <v>45.45372342333975</v>
       </c>
       <c r="J3" t="n">
         <v>124.7284912435874</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1808579970825</v>
+        <v>213.1808579970827</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6479717289723</v>
+        <v>286.6479717289725</v>
       </c>
       <c r="M3" t="n">
-        <v>334.5046626963483</v>
+        <v>334.5046626963486</v>
       </c>
       <c r="N3" t="n">
-        <v>343.358005768232</v>
+        <v>343.3580057682323</v>
       </c>
       <c r="O3" t="n">
-        <v>314.1054948466126</v>
+        <v>314.1054948466128</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0973516439954</v>
+        <v>252.0973516439956</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5204033774368</v>
+        <v>168.5204033774369</v>
       </c>
       <c r="R3" t="n">
-        <v>81.96724952621619</v>
+        <v>81.96724952621625</v>
       </c>
       <c r="S3" t="n">
-        <v>24.52184951564886</v>
+        <v>24.52184951564887</v>
       </c>
       <c r="T3" t="n">
-        <v>5.321270296311996</v>
+        <v>5.321270296312001</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08685424857963005</v>
+        <v>0.0868542485796301</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106798402665012</v>
+        <v>1.106798402665013</v>
       </c>
       <c r="H4" t="n">
-        <v>9.840443980058021</v>
+        <v>9.840443980058028</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28444650923509</v>
+        <v>33.28444650923512</v>
       </c>
       <c r="J4" t="n">
-        <v>78.25064706841633</v>
+        <v>78.25064706841638</v>
       </c>
       <c r="K4" t="n">
         <v>128.5898507823532</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5507370653055</v>
+        <v>164.5507370653056</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4956805195709</v>
+        <v>173.495680519571</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3703410187287</v>
+        <v>169.3703410187288</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4409233148692</v>
+        <v>156.4409233148693</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8622359005028</v>
+        <v>133.8622359005029</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.67927351770386</v>
+        <v>92.67927351770392</v>
       </c>
       <c r="R4" t="n">
-        <v>49.76568090528315</v>
+        <v>49.76568090528319</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28847761735297</v>
+        <v>19.28847761735299</v>
       </c>
       <c r="T4" t="n">
-        <v>4.729047720477777</v>
+        <v>4.72904772047778</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06037082196354616</v>
+        <v>0.06037082196354621</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350877</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582785</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>575.5951359912046</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>324.9782573297445</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32332,7 +32332,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -34219,13 +34219,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34450,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.37304427622146</v>
+        <v>28.37304427622163</v>
       </c>
       <c r="K2" t="n">
-        <v>93.77486694836693</v>
+        <v>93.77486694836716</v>
       </c>
       <c r="L2" t="n">
-        <v>153.6105215176178</v>
+        <v>153.6105215176181</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9106335187892</v>
+        <v>202.9106335187895</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8543522095309</v>
+        <v>210.8543522095313</v>
       </c>
       <c r="O2" t="n">
-        <v>185.6338248099623</v>
+        <v>185.6338248099626</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5846788678517</v>
+        <v>123.5846788678519</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.14760702288331</v>
+        <v>44.14760702288353</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.33941902272355</v>
+        <v>75.33941902272372</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0935919490981</v>
+        <v>148.0935919490983</v>
       </c>
       <c r="M3" t="n">
-        <v>192.37062877433</v>
+        <v>192.3706287743303</v>
       </c>
       <c r="N3" t="n">
-        <v>212.0162936848987</v>
+        <v>212.016293684899</v>
       </c>
       <c r="O3" t="n">
-        <v>171.5092504021682</v>
+        <v>171.5092504021684</v>
       </c>
       <c r="P3" t="n">
-        <v>118.1229442296652</v>
+        <v>118.1229442296654</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.4374011083396</v>
+        <v>125.43740110834</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>105.482619305918</v>
+        <v>106.3203589564704</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1407623256216</v>
+        <v>192.1407623256218</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0795574814115</v>
+        <v>213.0795574814116</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5025133979573</v>
+        <v>213.5025133979574</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0260512289088</v>
+        <v>181.026051228909</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1407951653963</v>
+        <v>131.1407951653964</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.517230266009477</v>
+        <v>5.679490615458382</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763038</v>
+        <v>172.7600739089027</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659561</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>263.7138800015061</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>197.7888359819418</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649633</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496797</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676403</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35269,10 +35269,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>433.4611020691863</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35980,7 +35980,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
